--- a/biology/Zoologie/Ruth_Desqueyroux-Faúndez/Ruth_Desqueyroux-Faúndez.xlsx
+++ b/biology/Zoologie/Ruth_Desqueyroux-Faúndez/Ruth_Desqueyroux-Faúndez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ruth_Desqueyroux-Fa%C3%BAndez</t>
+          <t>Ruth_Desqueyroux-Faúndez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruth Desqueyroux-Faúndez, née au Chili le 30 juin 1932 et décédée en Suisse le 22 juin 2019, est une spongiologue. Elle est chargée de recherche au Muséum d'histoire naturelle de Genève à partir de 1979, puis conservatrice honoraire à sa retraite en 1997.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ruth_Desqueyroux-Fa%C3%BAndez</t>
+          <t>Ruth_Desqueyroux-Faúndez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruth Desqueyroux-Faúndez termine ses études à l'Université de Concepción à la fin des années 1960, dans le musée de zoologie (Museo de Zoología) duquel elle organise la première collection d'éponges chiliennes. Elle quitte de force sont pays natal en 1974 à la suite du coup d’état d’Augusto Pinochet pour travailler auprès de Claude Lévi à Paris. Elle est alors chargée d'étudier les éponges de Nouvelle-Calédonie, tâche qu'elle continue après être engagée comme la première femme « chargée de recherche » au Muséum d'histoire naturelle de Genève en 1979. Elle publie notamment aux côtés de Rob van Soest à la fin des années 1990, et prend sa retraite en 1997. Elle continue ensuite d'organiser et de participer à des missions pour collecter et décrire les éponges chiliennes, ayant décrit plus de 80 espèces nouvelles au cours de sa carrière. Elle meurt le 22 juin 2019 à l'âge de 86 ans. Elle a écrit et co-écrit plus de 80 articles scientifiques.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ruth_Desqueyroux-Fa%C3%BAndez</t>
+          <t>Ruth_Desqueyroux-Faúndez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,92 +556,94 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruth Desqueyroux-Faúndez a décrit ou co-décrit les 83 espèces d'éponges suivantes :
-Amphimedon paradisus Desqueyroux-Faúndez, 1989[1]
-Aplysina ecuatorensis Desqueyroux-Faúndez &amp; van Soest, 1997, nomen nudum correspondant au nom valide Aplysina chiriquiensis Díaz, van Soest, Rützler &amp; Guzman, 2005[2]
-Arenosclera rosacea Desqueyroux-Faúndez, 1984[3]
-Aulospongus galapagensis Desqueyroux-Faúndez &amp; van Soest, 1997, désormais Raspailia galapagensis (Desqueyroux-Faúndez &amp; van Soest, 1997)[2]
-Cacospongia incognita Desqueyroux-Faúndez &amp; van Soest, 1997, désormais Scalarispongia incognita (Desqueyroux-Faúndez &amp; van Soest, 1997)[2]
-Callyspongia aerizusa Desqueyroux-Faúndez, 1984[3]
-Callyspongia flammea Desqueyroux-Faúndez, 1984[3]
-Callyspongia fructicosa Desqueyroux-Faúndez, 1984[3]
-Callyspongia hispidoconulosa Desqueyroux-Faúndez, 1984[3]
-Callyspongia parva Desqueyroux-Faúndez, 1984[3]
-Callyspongia polymorpha Desqueyroux-Faúndez, 1984[3]
-Callyspongia pseudoreticulata Desqueyroux-Faúndez, 1984[3]
-Callyspongia rigida Desqueyroux-Faúndez, 1984[3]
-Callyspongia spinimarginata Desqueyroux-Faúndez, 1984[3]
-Chondrilla verrucosa Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Cinachyrella globulosa Desqueyroux-Faúndez &amp; van Soest, 1997, remplacé par Cinachyrella desqueyrouxae van Soest &amp; Hooper, 2020[2],[4]
-Clathria microxa Desqueyroux-Faúndez, 1972[5]
-Clathria mytilifila Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Clathria rosetafiordica Hajdu, Desqueyroux-Faúndez &amp; Willenz, 2006[7]
-Corallistes isabela Desqueyroux-Faúndez &amp; van Soest, 1997[2]
+Amphimedon paradisus Desqueyroux-Faúndez, 1989
+Aplysina ecuatorensis Desqueyroux-Faúndez &amp; van Soest, 1997, nomen nudum correspondant au nom valide Aplysina chiriquiensis Díaz, van Soest, Rützler &amp; Guzman, 2005
+Arenosclera rosacea Desqueyroux-Faúndez, 1984
+Aulospongus galapagensis Desqueyroux-Faúndez &amp; van Soest, 1997, désormais Raspailia galapagensis (Desqueyroux-Faúndez &amp; van Soest, 1997)
+Cacospongia incognita Desqueyroux-Faúndez &amp; van Soest, 1997, désormais Scalarispongia incognita (Desqueyroux-Faúndez &amp; van Soest, 1997)
+Callyspongia aerizusa Desqueyroux-Faúndez, 1984
+Callyspongia flammea Desqueyroux-Faúndez, 1984
+Callyspongia fructicosa Desqueyroux-Faúndez, 1984
+Callyspongia hispidoconulosa Desqueyroux-Faúndez, 1984
+Callyspongia parva Desqueyroux-Faúndez, 1984
+Callyspongia polymorpha Desqueyroux-Faúndez, 1984
+Callyspongia pseudoreticulata Desqueyroux-Faúndez, 1984
+Callyspongia rigida Desqueyroux-Faúndez, 1984
+Callyspongia spinimarginata Desqueyroux-Faúndez, 1984
+Chondrilla verrucosa Desqueyroux-Faúndez &amp; van Soest, 1997
+Cinachyrella globulosa Desqueyroux-Faúndez &amp; van Soest, 1997, remplacé par Cinachyrella desqueyrouxae van Soest &amp; Hooper, 2020,
+Clathria microxa Desqueyroux-Faúndez, 1972
+Clathria mytilifila Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Clathria rosetafiordica Hajdu, Desqueyroux-Faúndez &amp; Willenz, 2006
+Corallistes isabela Desqueyroux-Faúndez &amp; van Soest, 1997
 Cymbastela hooperi van Soest, Desqueyroux-Faúndez, Wright &amp; König, 1996
-Dercitus reptans Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Gelliodes fragilis Desqueyroux-Faúndez, 1984[3]
-Haliclona agglutinata Desqueyroux-Faúndez, 1990[8]
-Haliclona caduca Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Haliclona nitens Desqueyroux-Faúndez, 1990[8]
-Haliclona translucida Desqueyroux-Faúndez, 1990[8]
-Halicnemia diazae Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Hymeniacidon longistylus Desqueyroux-Faúndez, 1972[5]
+Dercitus reptans Desqueyroux-Faúndez &amp; van Soest, 1997
+Gelliodes fragilis Desqueyroux-Faúndez, 1984
+Haliclona agglutinata Desqueyroux-Faúndez, 1990
+Haliclona caduca Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Haliclona nitens Desqueyroux-Faúndez, 1990
+Haliclona translucida Desqueyroux-Faúndez, 1990
+Halicnemia diazae Desqueyroux-Faúndez &amp; van Soest, 1997
+Hymeniacidon longistylus Desqueyroux-Faúndez, 1972
 Inflatella perlucida Desqueyroux-Faúndez, 1987
 Iophon chilense Desqueyroux-Faúndez &amp; van Soest, 1996
 Iophon timidum Desqueyroux-Faúndez &amp; van Soest, 1996
 Iophon tubiforme Desqueyroux-Faúndez &amp; van Soest, 1996
-Latrunculia ciruela Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Latrunculia copihuensis Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Latrunculia verenae Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Latrunculia yepayek Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Lissodendoryx albemarlensis Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Mycale arenaria Hajdu &amp; Desqueyroux-Faúndez, 1994[9]
-Mycale beatrizae Hajdu &amp; Desqueyroux-Faúndez, 1994[9]
-Mycale darwini Hajdu &amp; Desqueyroux-Faúndez, 1994[9]
-Mycale paschalis Desqueyroux-Faúndez, 1990[8]
-Mycale thielei Hajdu &amp; Desqueyroux-Faúndez, 1994[9]
-Myxilla araucana Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
+Latrunculia ciruela Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Latrunculia copihuensis Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Latrunculia verenae Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Latrunculia yepayek Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Lissodendoryx albemarlensis Desqueyroux-Faúndez &amp; van Soest, 1997
+Mycale arenaria Hajdu &amp; Desqueyroux-Faúndez, 1994
+Mycale beatrizae Hajdu &amp; Desqueyroux-Faúndez, 1994
+Mycale darwini Hajdu &amp; Desqueyroux-Faúndez, 1994
+Mycale paschalis Desqueyroux-Faúndez, 1990
+Mycale thielei Hajdu &amp; Desqueyroux-Faúndez, 1994
+Myxilla araucana Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
 Myxilla asymmetrica Desqueyroux-Faúndez &amp; van Soest, 1996
 Myxilla dracula Desqueyroux-Faúndez &amp; van Soest, 1996
-Neopodospongia tupecomareni Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Niphates hispida Desqueyroux-Faúndez, 1984[3]
-Oceanapia guaiteca Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Oceanapia microtoxa Desqueyroux-Faúndez &amp; van Soest, 1997[2]
+Neopodospongia tupecomareni Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Niphates hispida Desqueyroux-Faúndez, 1984
+Oceanapia guaiteca Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Oceanapia microtoxa Desqueyroux-Faúndez &amp; van Soest, 1997
 Oceanapia papula Desqueyroux-Faúndez, 1987
-Oceanapia spinisphaera Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
+Oceanapia spinisphaera Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
 Oceanapia tenuis Desqueyroux-Faúndez, 1987
 Pellina triangulata Desqueyroux-Faúndez, 1987
-Penares apicospinatus Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Penares scabiosus Desqueyroux-Faúndez &amp; van Soest, 1997[2]
+Penares apicospinatus Desqueyroux-Faúndez &amp; van Soest, 1997
+Penares scabiosus Desqueyroux-Faúndez &amp; van Soest, 1997
 Petrosia capsa Desqueyroux-Faúndez, 1987
 Petrosia granifera Desqueyroux-Faúndez, 1987
-Phakellia hooperi Desqueyroux-Faúndez &amp; van Soest, 1997[2]
+Phakellia hooperi Desqueyroux-Faúndez &amp; van Soest, 1997
 Phakellia sur Carvalho, Desqueyroux-Faúndez &amp; Hajdu, 2007
-Plakina fragilis Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Plakina microlobata Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Plakina pacifica Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Plakortis galapagensis Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Plocamia inconspicua Desqueyroux-Faúndez, 1972, désormais Antho inconspicua (Desqueyroux-Faúndez, 1972)[10]
+Plakina fragilis Desqueyroux-Faúndez &amp; van Soest, 1997
+Plakina microlobata Desqueyroux-Faúndez &amp; van Soest, 1997
+Plakina pacifica Desqueyroux-Faúndez &amp; van Soest, 1997
+Plakortis galapagensis Desqueyroux-Faúndez &amp; van Soest, 1997
+Plocamia inconspicua Desqueyroux-Faúndez, 1972, désormais Antho inconspicua (Desqueyroux-Faúndez, 1972)
 Poecillastra antonbruunae Carvalho, Desqueyroux-Faúndez &amp; Hajdu, 2011
 Poecillastra maremontana Carvalho, Desqueyroux-Faúndez &amp; Hajdu, 2011
 Poecillastra sinetridens Carvalho, Desqueyroux-Faúndez &amp; Hajdu, 2011
-Polymastia villosa Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Pseudosuberites vakai Desqueyroux-Faúndez, 1990[8]
-Quasillina translucida Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Reniera rapanui Desqueyroux-Faúndez, 1990, désormais Haliclona rapanui (Desqueyroux-Faúndez, 1990)[8]
-Sigmosceptrella hospitalis Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Spongosorites smithae Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Stelletta eduardoi Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Suberites cranium Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
+Polymastia villosa Desqueyroux-Faúndez &amp; van Soest, 1997
+Pseudosuberites vakai Desqueyroux-Faúndez, 1990
+Quasillina translucida Desqueyroux-Faúndez &amp; van Soest, 1997
+Reniera rapanui Desqueyroux-Faúndez, 1990, désormais Haliclona rapanui (Desqueyroux-Faúndez, 1990)
+Sigmosceptrella hospitalis Desqueyroux-Faúndez &amp; van Soest, 1997
+Spongosorites smithae Desqueyroux-Faúndez &amp; van Soest, 1997
+Stelletta eduardoi Desqueyroux-Faúndez &amp; van Soest, 1997
+Suberites cranium Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
 Tedania galapagensis Desqueyroux-Faúndez &amp; van Soest, 1996
-Tedania tepitootehenuaensis Desqueyroux-Faúndez, 1990[8]
-Tethya melinka Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013[6]
-Tethya sarai Desqueyroux-Faúndez &amp; van Soest, 1997[2]
-Toxochalina fenestrata Desqueyroux-Faúndez, 1984, désormais Callyspongia fenestrata (Desqueyroux-Faúndez, 1984)[3]
-Toxochalina pseudofibrosa Desqueyroux-Faúndez, 1984, désormais Callyspongia pseudofibrosa (Desqueyroux-Faúndez, 1984)[3]
-Toxochalina staminea Desqueyroux-Faúndez, 1984, désormais Callyspongia staminea (Desqueyroux-Faúndez, 1984)[3]
+Tedania tepitootehenuaensis Desqueyroux-Faúndez, 1990
+Tethya melinka Hajdu, Desqueyroux-Faúndez, Carvalho, Lôbo-Hajdu &amp; Willenz, 2013
+Tethya sarai Desqueyroux-Faúndez &amp; van Soest, 1997
+Toxochalina fenestrata Desqueyroux-Faúndez, 1984, désormais Callyspongia fenestrata (Desqueyroux-Faúndez, 1984)
+Toxochalina pseudofibrosa Desqueyroux-Faúndez, 1984, désormais Callyspongia pseudofibrosa (Desqueyroux-Faúndez, 1984)
+Toxochalina staminea Desqueyroux-Faúndez, 1984, désormais Callyspongia staminea (Desqueyroux-Faúndez, 1984)
 </t>
         </is>
       </c>
@@ -638,7 +654,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ruth_Desqueyroux-Fa%C3%BAndez</t>
+          <t>Ruth_Desqueyroux-Faúndez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -656,7 +672,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ruth Desqueyroux-Faúndez est la dédicataire de plusieurs taxons, dont :
 Cinachyrella desqueyrouxae van Soest &amp; Hooper, 2020
